--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>PFR</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>RESID:929292@94</t>
+  </si>
+  <si>
+    <t>XTESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,76 +755,76 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11032</v>
+        <v>71601</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
       </c>
       <c r="M4">
-        <v>8298.4705146899996</v>
+        <v>10892.19524069</v>
       </c>
       <c r="N4">
-        <v>8303.8127800000002</v>
+        <v>10898.767680000001</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>25</v>
       </c>
       <c r="Q4">
-        <v>8298.4723288448895</v>
+        <v>10892.207744777499</v>
       </c>
       <c r="R4">
-        <v>1034</v>
+        <v>848</v>
       </c>
       <c r="S4">
-        <v>91.885243333333307</v>
+        <v>75.501321666666698</v>
       </c>
       <c r="T4">
-        <v>4.5889431901253599E-114</v>
+        <v>1.08534775914209E-126</v>
       </c>
       <c r="U4">
-        <v>2.2659899102903199E-76</v>
+        <v>1.3356636290276699E-84</v>
       </c>
       <c r="V4">
-        <v>1.18862953942261E-70</v>
+        <v>7.0057427271582204E-79</v>
       </c>
       <c r="W4">
-        <v>860.62255867077602</v>
+        <v>494.23473928831999</v>
       </c>
       <c r="X4">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -868,34 +871,34 @@
         <v>8303.8127800000002</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>25</v>
       </c>
       <c r="Q5">
-        <v>8298.4758992368097</v>
+        <v>8298.4723288448895</v>
       </c>
       <c r="R5">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="S5">
-        <v>92.001024999999998</v>
+        <v>91.885243333333307</v>
       </c>
       <c r="T5">
-        <v>1.04102283390667E-107</v>
+        <v>4.5889431901253599E-114</v>
       </c>
       <c r="U5">
-        <v>3.2638036277088602E-72</v>
+        <v>2.2659899102903199E-76</v>
       </c>
       <c r="V5">
-        <v>1.71194986162762E-66</v>
+        <v>1.18862953942261E-70</v>
       </c>
       <c r="W5">
-        <v>1066.8577483884701</v>
+        <v>860.62255867077602</v>
       </c>
       <c r="X5">
-        <v>0.33333333333333298</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -942,33 +945,107 @@
         <v>8303.8127800000002</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
         <v>25</v>
       </c>
       <c r="Q6">
+        <v>8298.4758992368097</v>
+      </c>
+      <c r="R6">
+        <v>1023</v>
+      </c>
+      <c r="S6">
+        <v>92.001024999999998</v>
+      </c>
+      <c r="T6">
+        <v>1.04102283390667E-107</v>
+      </c>
+      <c r="U6">
+        <v>3.2638036277088602E-72</v>
+      </c>
+      <c r="V6">
+        <v>1.71194986162762E-66</v>
+      </c>
+      <c r="W6">
+        <v>1066.8577483884701</v>
+      </c>
+      <c r="X6">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11032</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>77</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>8298.4705146899996</v>
+      </c>
+      <c r="N7">
+        <v>8303.8127800000002</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7">
         <v>8298.4770076489604</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>1286</v>
       </c>
-      <c r="S6">
+      <c r="S7">
         <v>116.20425</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>2.2024558973003701E-9</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>5.5880138875496503E-8</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>2.9312038607419402E-2</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>380.77767402934097</v>
       </c>
-      <c r="X6">
+      <c r="X7">
         <v>6.6666666666666693E-2</v>
       </c>
     </row>

--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeahSchaffer\Documents\GitClones\proteoform-suite-1\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\ProteoformSuite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>PFR</t>
   </si>
@@ -150,15 +150,12 @@
   </si>
   <si>
     <t>RESID:929292@94</t>
-  </si>
-  <si>
-    <t>XTESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +211,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="wsHeader" xfId="1"/>
+    <cellStyle name="wsHeader" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -767,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1051,7 +1048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -131,9 +131,6 @@
     <t>60S acidic ribosomal protein P1-alpha</t>
   </si>
   <si>
-    <t>STESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
-  </si>
-  <si>
     <t>alpha-amino acetylated residue@N, O-phospho-L-serine@95</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>RESID:929292@94</t>
+  </si>
+  <si>
+    <t>SCESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
   </si>
 </sst>
 </file>
@@ -525,11 +525,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="194.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -619,7 +623,7 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -631,10 +635,10 @@
         <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -646,13 +650,13 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
         <v>25</v>
       </c>
       <c r="Q2">
-        <v>10892.207744777499</v>
+        <v>10894.13</v>
       </c>
       <c r="R2">
         <v>848</v>
@@ -690,7 +694,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -702,13 +706,13 @@
         <v>105</v>
       </c>
       <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -720,13 +724,13 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
         <v>25</v>
       </c>
       <c r="Q3">
-        <v>10892.207744777499</v>
+        <v>10894.13</v>
       </c>
       <c r="R3">
         <v>848</v>
@@ -764,7 +768,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -776,13 +780,13 @@
         <v>105</v>
       </c>
       <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -794,13 +798,13 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
         <v>25</v>
       </c>
       <c r="Q4">
-        <v>10892.207744777499</v>
+        <v>10894.13</v>
       </c>
       <c r="R4">
         <v>848</v>

--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>PFR</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>SCESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
+  </si>
+  <si>
+    <t>PSI-MOD:64654556@3</t>
+  </si>
+  <si>
+    <t>PSI-MOD:661@3</t>
+  </si>
+  <si>
+    <t>PSI-MOD:661@3|RESID:37@94</t>
   </si>
 </sst>
 </file>
@@ -523,19 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="194.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +693,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>71601</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -756,7 +767,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>71601</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1048,6 +1059,213 @@
       </c>
       <c r="X7">
         <v>6.6666666666666693E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12345</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>106</v>
+      </c>
+      <c r="H8">
+        <v>105</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>10892.19524069</v>
+      </c>
+      <c r="N8">
+        <v>10898.767680000001</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>10894.13</v>
+      </c>
+      <c r="R8">
+        <v>848</v>
+      </c>
+      <c r="S8">
+        <v>75.501321666666698</v>
+      </c>
+      <c r="T8">
+        <v>1.08534775914209E-126</v>
+      </c>
+      <c r="U8">
+        <v>1.3356636290276699E-84</v>
+      </c>
+      <c r="V8">
+        <v>7.0057427271582204E-79</v>
+      </c>
+      <c r="W8">
+        <v>494.23473928831999</v>
+      </c>
+      <c r="X8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>105</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>10892.19524069</v>
+      </c>
+      <c r="N9">
+        <v>10898.767680000001</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>10894.13</v>
+      </c>
+      <c r="R9">
+        <v>848</v>
+      </c>
+      <c r="S9">
+        <v>75.501321666666698</v>
+      </c>
+      <c r="T9">
+        <v>1.08534775914209E-126</v>
+      </c>
+      <c r="U9">
+        <v>1.3356636290276699E-84</v>
+      </c>
+      <c r="V9">
+        <v>7.0057427271582204E-79</v>
+      </c>
+      <c r="W9">
+        <v>494.23473928831999</v>
+      </c>
+      <c r="X9">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
+      </c>
+      <c r="H10">
+        <v>105</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>10892.19524069</v>
+      </c>
+      <c r="N10">
+        <v>10898.767680000001</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>10894.13</v>
+      </c>
+      <c r="R10">
+        <v>848</v>
+      </c>
+      <c r="S10">
+        <v>75.501321666666698</v>
+      </c>
+      <c r="T10">
+        <v>1.08534775914209E-126</v>
+      </c>
+      <c r="U10">
+        <v>1.3356636290276699E-84</v>
+      </c>
+      <c r="V10">
+        <v>7.0057427271582204E-79</v>
+      </c>
+      <c r="W10">
+        <v>494.23473928831999</v>
+      </c>
+      <c r="X10">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\ProteoformSuite\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellen\Documents\gitclones\ProteoformSuite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06F1147-EDED-4C31-862F-6530E6DE5128}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,19 +535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="194.7109375" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="194.703125" customWidth="1"/>
+    <col min="9" max="9" width="42.5859375" customWidth="1"/>
+    <col min="10" max="10" width="39.703125" customWidth="1"/>
+    <col min="11" max="11" width="27.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>12345</v>
       </c>
@@ -691,7 +692,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -765,7 +766,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -839,7 +840,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>11032</v>
       </c>
@@ -913,7 +914,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>11032</v>
       </c>
@@ -987,7 +988,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>11032</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>6.6666666666666693E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>12345</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>12345</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>12345</v>
       </c>

--- a/Test/test_td_hits_file.xlsx
+++ b/Test/test_td_hits_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\ProteoformSuite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B6638-F829-4E79-B5F3-27368A523ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>PFR</t>
   </si>
@@ -107,9 +108,6 @@
     <t>VMA21_YEAST</t>
   </si>
   <si>
-    <t>P41806</t>
-  </si>
-  <si>
     <t>Vacuolar ATPase assembly integral membrane protein VMA21 {ECO:0000255|HAMAP-Rule:MF_03058}</t>
   </si>
   <si>
@@ -125,9 +123,6 @@
     <t>RLA1_YEAST</t>
   </si>
   <si>
-    <t>P05318</t>
-  </si>
-  <si>
     <t>60S acidic ribosomal protein P1-alpha</t>
   </si>
   <si>
@@ -152,20 +147,20 @@
     <t>SCESALSYAALILADSEIEISSEKLLTLTNAANVPVENIWADIFAKALDGQNLKDLLVNFSAGAAAPAGVAGGVAGGEAGEAEAEKEEEEAKEESDDDMGFGLFD</t>
   </si>
   <si>
+    <t>PSI-MOD:661@3</t>
+  </si>
+  <si>
+    <t>P62805</t>
+  </si>
+  <si>
     <t>PSI-MOD:64654556@3</t>
-  </si>
-  <si>
-    <t>PSI-MOD:661@3</t>
-  </si>
-  <si>
-    <t>PSI-MOD:661@3|RESID:37@94</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +180,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,7 +536,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,16 +626,16 @@
         <v>12345</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -646,10 +647,10 @@
         <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -661,7 +662,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
         <v>25</v>
@@ -696,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -717,13 +718,13 @@
         <v>105</v>
       </c>
       <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -735,7 +736,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
         <v>25</v>
@@ -770,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -791,13 +792,13 @@
         <v>105</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
       </c>
       <c r="L4" t="s">
         <v>24</v>
@@ -809,7 +810,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
         <v>25</v>
@@ -847,13 +848,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -883,7 +884,7 @@
         <v>8303.8127800000002</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
         <v>25</v>
@@ -921,13 +922,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -957,7 +958,7 @@
         <v>8303.8127800000002</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
         <v>25</v>
@@ -995,13 +996,13 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1031,7 +1032,7 @@
         <v>8303.8127800000002</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
         <v>25</v>
@@ -1066,16 +1067,16 @@
         <v>12345</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1087,8 +1088,8 @@
         <v>105</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" t="s">
-        <v>44</v>
+      <c r="K8" t="s">
+        <v>40</v>
       </c>
       <c r="L8" t="s">
         <v>24</v>
@@ -1100,7 +1101,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
         <v>25</v>
@@ -1135,16 +1136,16 @@
         <v>12345</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1157,7 +1158,7 @@
       </c>
       <c r="I9" s="2"/>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -1169,7 +1170,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
         <v>25</v>
@@ -1201,19 +1202,19 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12345</v>
+        <v>12536</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1238,7 +1239,7 @@
         <v>10898.767680000001</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
         <v>25</v>
@@ -1269,6 +1270,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
